--- a/Bin/Server/DataConfig/Excel/Item.xlsx
+++ b/Bin/Server/DataConfig/Excel/Item.xlsx
@@ -1,13 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18730"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\cpp\ArkGameFrame\Bin\Server\DataConfig\Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Property1" sheetId="1" r:id="rId1"/>
+    <sheet name="DataNode" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
@@ -17,15 +22,15 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="Item" type="4" background="1" refreshedVersion="2" saveData="1">
-    <webPr parsePre="1" consecutive="1" xl2000="1" sourceData="1" xml="1" url="D:\NoahGameFrame\trunk\_Out\Server\NFDataCfg\Excel_Ini\Item.xml" htmlFormat="all" htmlTables="1"/>
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="Item" type="4" refreshedVersion="2" background="1" saveData="1">
+    <webPr xml="1" sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="D:\NoahGameFrame\trunk\_Out\Server\NFDataCfg\Excel_Ini\Item.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="988">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1587" uniqueCount="988">
   <si>
     <t>Id</t>
   </si>
@@ -2994,14 +2999,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3025,151 +3024,13 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="41">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3196,7 +3057,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.4"/>
+        <fgColor theme="6" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3208,210 +3069,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.6"/>
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.8"/>
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.8"/>
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -3577,251 +3258,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4019,61 +3458,13 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -4088,11 +3479,19 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2">
-    <tableStyle name="MySqlDefault" count="2">
+    <tableStyle name="MySqlDefault" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
   </tableStyles>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -4353,19 +3752,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V310"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="8" topLeftCell="G9" activePane="bottomRight" state="frozen"/>
-      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K17" sqref="K17"/>
+      <selection pane="bottomRight" activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="20.75" customWidth="1"/>
     <col min="2" max="2" width="12.75" customWidth="1"/>
@@ -4390,7 +3787,7 @@
     <col min="22" max="22" width="8.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:22">
+    <row r="1" spans="1:22" s="1" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -4458,7 +3855,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" spans="1:22">
+    <row r="2" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="15" t="s">
         <v>22</v>
       </c>
@@ -4526,7 +3923,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" spans="1:22">
+    <row r="3" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="15" t="s">
         <v>26</v>
       </c>
@@ -4594,7 +3991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" s="2" customFormat="1" spans="1:22">
+    <row r="4" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="15" t="s">
         <v>27</v>
       </c>
@@ -4662,7 +4059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" s="2" customFormat="1" spans="1:22">
+    <row r="5" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="15" t="s">
         <v>28</v>
       </c>
@@ -4730,7 +4127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" s="2" customFormat="1" spans="1:22">
+    <row r="6" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="15" t="s">
         <v>29</v>
       </c>
@@ -4798,7 +4195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" s="3" customFormat="1" spans="1:22">
+    <row r="7" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="16" t="s">
         <v>30</v>
       </c>
@@ -4866,7 +4263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" s="2" customFormat="1" ht="92" customHeight="1" spans="1:22">
+    <row r="8" spans="1:22" s="2" customFormat="1" ht="92.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="15" t="s">
         <v>31</v>
       </c>
@@ -4934,7 +4331,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="9" s="4" customFormat="1" spans="1:22">
+    <row r="9" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="17" t="s">
         <v>53</v>
       </c>
@@ -4990,7 +4387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" s="4" customFormat="1" spans="1:22">
+    <row r="10" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="20" t="s">
         <v>58</v>
       </c>
@@ -5046,7 +4443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" s="4" customFormat="1" spans="1:22">
+    <row r="11" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="20" t="s">
         <v>61</v>
       </c>
@@ -5102,7 +4499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" s="4" customFormat="1" spans="1:22">
+    <row r="12" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="20" t="s">
         <v>64</v>
       </c>
@@ -5158,7 +4555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" s="4" customFormat="1" spans="1:22">
+    <row r="13" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="20" t="s">
         <v>67</v>
       </c>
@@ -5214,7 +4611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" s="4" customFormat="1" spans="1:22">
+    <row r="14" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="20" t="s">
         <v>71</v>
       </c>
@@ -5270,7 +4667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" s="4" customFormat="1" spans="1:22">
+    <row r="15" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="20" t="s">
         <v>74</v>
       </c>
@@ -5326,7 +4723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" s="4" customFormat="1" spans="1:22">
+    <row r="16" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" s="20" t="s">
         <v>77</v>
       </c>
@@ -5382,7 +4779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" s="4" customFormat="1" spans="1:22">
+    <row r="17" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A17" s="20" t="s">
         <v>80</v>
       </c>
@@ -5438,7 +4835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" s="4" customFormat="1" spans="1:22">
+    <row r="18" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A18" s="20" t="s">
         <v>84</v>
       </c>
@@ -5494,7 +4891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" s="4" customFormat="1" spans="1:22">
+    <row r="19" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A19" s="20" t="s">
         <v>87</v>
       </c>
@@ -5550,7 +4947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" s="4" customFormat="1" spans="1:22">
+    <row r="20" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A20" s="20" t="s">
         <v>90</v>
       </c>
@@ -5606,7 +5003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" s="4" customFormat="1" spans="1:22">
+    <row r="21" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A21" s="20" t="s">
         <v>93</v>
       </c>
@@ -5662,7 +5059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" s="4" customFormat="1" spans="1:22">
+    <row r="22" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A22" s="20" t="s">
         <v>97</v>
       </c>
@@ -5718,7 +5115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" s="4" customFormat="1" spans="1:22">
+    <row r="23" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A23" s="20" t="s">
         <v>100</v>
       </c>
@@ -5774,7 +5171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" s="4" customFormat="1" spans="1:22">
+    <row r="24" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A24" s="20" t="s">
         <v>103</v>
       </c>
@@ -5830,7 +5227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" s="4" customFormat="1" spans="1:22">
+    <row r="25" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A25" s="20" t="s">
         <v>106</v>
       </c>
@@ -5886,7 +5283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" s="4" customFormat="1" spans="1:22">
+    <row r="26" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A26" s="20" t="s">
         <v>110</v>
       </c>
@@ -5942,7 +5339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" s="4" customFormat="1" spans="1:22">
+    <row r="27" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A27" s="20" t="s">
         <v>113</v>
       </c>
@@ -5998,7 +5395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" s="4" customFormat="1" spans="1:22">
+    <row r="28" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A28" s="20" t="s">
         <v>116</v>
       </c>
@@ -6054,7 +5451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" s="4" customFormat="1" spans="1:22">
+    <row r="29" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A29" s="20" t="s">
         <v>119</v>
       </c>
@@ -6110,7 +5507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" s="4" customFormat="1" spans="1:22">
+    <row r="30" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A30" s="20" t="s">
         <v>123</v>
       </c>
@@ -6166,7 +5563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" s="4" customFormat="1" spans="1:22">
+    <row r="31" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A31" s="20" t="s">
         <v>126</v>
       </c>
@@ -6222,7 +5619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" s="4" customFormat="1" spans="1:22">
+    <row r="32" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A32" s="20" t="s">
         <v>129</v>
       </c>
@@ -6278,7 +5675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" s="4" customFormat="1" ht="15" customHeight="1" spans="1:22">
+    <row r="33" spans="1:22" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="20" t="s">
         <v>132</v>
       </c>
@@ -6334,7 +5731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" s="4" customFormat="1" spans="1:22">
+    <row r="34" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A34" s="20" t="s">
         <v>135</v>
       </c>
@@ -6390,7 +5787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" s="4" customFormat="1" spans="1:22">
+    <row r="35" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A35" s="20" t="s">
         <v>139</v>
       </c>
@@ -6446,7 +5843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" s="4" customFormat="1" spans="1:22">
+    <row r="36" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A36" s="20" t="s">
         <v>142</v>
       </c>
@@ -6502,7 +5899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" s="4" customFormat="1" spans="1:22">
+    <row r="37" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A37" s="20" t="s">
         <v>145</v>
       </c>
@@ -6558,7 +5955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" s="4" customFormat="1" spans="1:22">
+    <row r="38" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A38" s="20" t="s">
         <v>148</v>
       </c>
@@ -6614,7 +6011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" s="4" customFormat="1" spans="1:22">
+    <row r="39" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A39" s="20" t="s">
         <v>151</v>
       </c>
@@ -6670,7 +6067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" s="4" customFormat="1" spans="1:22">
+    <row r="40" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A40" s="20" t="s">
         <v>154</v>
       </c>
@@ -6726,7 +6123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" s="4" customFormat="1" spans="1:22">
+    <row r="41" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A41" s="20" t="s">
         <v>158</v>
       </c>
@@ -6782,7 +6179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" s="4" customFormat="1" spans="1:22">
+    <row r="42" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A42" s="20" t="s">
         <v>161</v>
       </c>
@@ -6838,7 +6235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" s="4" customFormat="1" spans="1:22">
+    <row r="43" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A43" s="20" t="s">
         <v>164</v>
       </c>
@@ -6894,7 +6291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" s="4" customFormat="1" spans="1:22">
+    <row r="44" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A44" s="20" t="s">
         <v>167</v>
       </c>
@@ -6950,7 +6347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" s="4" customFormat="1" spans="1:22">
+    <row r="45" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A45" s="20" t="s">
         <v>170</v>
       </c>
@@ -7006,7 +6403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" s="4" customFormat="1" spans="1:22">
+    <row r="46" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A46" s="20" t="s">
         <v>173</v>
       </c>
@@ -7062,7 +6459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" s="4" customFormat="1" spans="1:22">
+    <row r="47" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A47" s="20" t="s">
         <v>176</v>
       </c>
@@ -7118,7 +6515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" s="4" customFormat="1" spans="1:22">
+    <row r="48" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A48" s="20" t="s">
         <v>179</v>
       </c>
@@ -7174,7 +6571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" s="4" customFormat="1" spans="1:22">
+    <row r="49" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A49" s="20" t="s">
         <v>182</v>
       </c>
@@ -7230,7 +6627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" s="4" customFormat="1" spans="1:22">
+    <row r="50" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A50" s="20" t="s">
         <v>185</v>
       </c>
@@ -7286,7 +6683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" s="4" customFormat="1" spans="1:22">
+    <row r="51" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A51" s="20" t="s">
         <v>189</v>
       </c>
@@ -7342,7 +6739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" s="4" customFormat="1" spans="1:22">
+    <row r="52" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A52" s="20" t="s">
         <v>192</v>
       </c>
@@ -7398,7 +6795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" s="4" customFormat="1" spans="1:22">
+    <row r="53" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A53" s="20" t="s">
         <v>195</v>
       </c>
@@ -7454,7 +6851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" s="4" customFormat="1" spans="1:22">
+    <row r="54" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A54" s="21" t="s">
         <v>198</v>
       </c>
@@ -7510,7 +6907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" s="5" customFormat="1" spans="1:22">
+    <row r="55" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A55" s="24" t="s">
         <v>201</v>
       </c>
@@ -7566,7 +6963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" s="5" customFormat="1" spans="1:22">
+    <row r="56" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A56" s="24" t="s">
         <v>205</v>
       </c>
@@ -7622,7 +7019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" s="5" customFormat="1" spans="1:22">
+    <row r="57" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A57" s="24" t="s">
         <v>208</v>
       </c>
@@ -7678,7 +7075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" s="5" customFormat="1" spans="1:22">
+    <row r="58" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A58" s="24" t="s">
         <v>211</v>
       </c>
@@ -7734,7 +7131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" s="5" customFormat="1" spans="1:22">
+    <row r="59" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A59" s="24" t="s">
         <v>214</v>
       </c>
@@ -7790,7 +7187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" s="5" customFormat="1" spans="1:22">
+    <row r="60" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A60" s="24" t="s">
         <v>217</v>
       </c>
@@ -7846,7 +7243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" s="5" customFormat="1" spans="1:22">
+    <row r="61" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A61" s="24" t="s">
         <v>220</v>
       </c>
@@ -7902,7 +7299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" s="5" customFormat="1" spans="1:22">
+    <row r="62" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A62" s="24" t="s">
         <v>223</v>
       </c>
@@ -7958,7 +7355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" s="5" customFormat="1" spans="1:22">
+    <row r="63" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A63" s="24" t="s">
         <v>226</v>
       </c>
@@ -8014,7 +7411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" s="5" customFormat="1" spans="1:22">
+    <row r="64" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A64" s="24" t="s">
         <v>229</v>
       </c>
@@ -8070,7 +7467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" s="5" customFormat="1" spans="1:22">
+    <row r="65" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A65" s="24" t="s">
         <v>232</v>
       </c>
@@ -8126,7 +7523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" s="5" customFormat="1" spans="1:22">
+    <row r="66" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A66" s="24" t="s">
         <v>236</v>
       </c>
@@ -8182,7 +7579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" s="5" customFormat="1" spans="1:22">
+    <row r="67" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A67" s="24" t="s">
         <v>239</v>
       </c>
@@ -8238,7 +7635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" s="5" customFormat="1" spans="1:22">
+    <row r="68" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A68" s="24" t="s">
         <v>242</v>
       </c>
@@ -8294,7 +7691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" s="5" customFormat="1" spans="1:22">
+    <row r="69" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A69" s="24" t="s">
         <v>245</v>
       </c>
@@ -8350,7 +7747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" s="5" customFormat="1" spans="1:22">
+    <row r="70" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A70" s="24" t="s">
         <v>248</v>
       </c>
@@ -8406,7 +7803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" s="5" customFormat="1" spans="1:22">
+    <row r="71" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A71" s="24" t="s">
         <v>251</v>
       </c>
@@ -8462,7 +7859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" s="5" customFormat="1" spans="1:22">
+    <row r="72" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A72" s="24" t="s">
         <v>254</v>
       </c>
@@ -8518,7 +7915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" s="5" customFormat="1" spans="1:22">
+    <row r="73" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A73" s="24" t="s">
         <v>257</v>
       </c>
@@ -8574,7 +7971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" s="5" customFormat="1" spans="1:22">
+    <row r="74" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A74" s="24" t="s">
         <v>260</v>
       </c>
@@ -8630,7 +8027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" s="5" customFormat="1" spans="1:22">
+    <row r="75" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A75" s="24" t="s">
         <v>263</v>
       </c>
@@ -8686,7 +8083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" s="5" customFormat="1" spans="1:22">
+    <row r="76" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A76" s="24" t="s">
         <v>267</v>
       </c>
@@ -8742,7 +8139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" s="5" customFormat="1" spans="1:22">
+    <row r="77" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A77" s="24" t="s">
         <v>270</v>
       </c>
@@ -8798,7 +8195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" s="5" customFormat="1" spans="1:22">
+    <row r="78" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A78" s="24" t="s">
         <v>273</v>
       </c>
@@ -8854,7 +8251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" s="5" customFormat="1" spans="1:22">
+    <row r="79" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A79" s="24" t="s">
         <v>276</v>
       </c>
@@ -8910,7 +8307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" s="5" customFormat="1" spans="1:22">
+    <row r="80" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A80" s="24" t="s">
         <v>279</v>
       </c>
@@ -8966,7 +8363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" s="5" customFormat="1" spans="1:22">
+    <row r="81" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A81" s="24" t="s">
         <v>282</v>
       </c>
@@ -9022,7 +8419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" s="5" customFormat="1" spans="1:22">
+    <row r="82" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A82" s="24" t="s">
         <v>285</v>
       </c>
@@ -9078,7 +8475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" s="5" customFormat="1" spans="1:22">
+    <row r="83" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A83" s="24" t="s">
         <v>288</v>
       </c>
@@ -9134,7 +8531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" s="5" customFormat="1" spans="1:22">
+    <row r="84" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A84" s="24" t="s">
         <v>291</v>
       </c>
@@ -9190,7 +8587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" s="5" customFormat="1" spans="1:22">
+    <row r="85" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A85" s="24" t="s">
         <v>294</v>
       </c>
@@ -9246,7 +8643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" s="5" customFormat="1" spans="1:22">
+    <row r="86" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A86" s="24" t="s">
         <v>298</v>
       </c>
@@ -9302,7 +8699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" s="5" customFormat="1" spans="1:22">
+    <row r="87" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A87" s="24" t="s">
         <v>301</v>
       </c>
@@ -9358,7 +8755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" s="5" customFormat="1" spans="1:22">
+    <row r="88" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A88" s="24" t="s">
         <v>304</v>
       </c>
@@ -9414,7 +8811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" s="5" customFormat="1" spans="1:22">
+    <row r="89" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A89" s="24" t="s">
         <v>307</v>
       </c>
@@ -9470,7 +8867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" s="5" customFormat="1" spans="1:22">
+    <row r="90" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A90" s="24" t="s">
         <v>310</v>
       </c>
@@ -9526,7 +8923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" s="5" customFormat="1" spans="1:22">
+    <row r="91" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A91" s="24" t="s">
         <v>313</v>
       </c>
@@ -9582,7 +8979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" s="5" customFormat="1" spans="1:22">
+    <row r="92" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A92" s="24" t="s">
         <v>316</v>
       </c>
@@ -9638,7 +9035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" s="5" customFormat="1" spans="1:22">
+    <row r="93" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A93" s="24" t="s">
         <v>319</v>
       </c>
@@ -9694,7 +9091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" s="5" customFormat="1" spans="1:22">
+    <row r="94" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A94" s="24" t="s">
         <v>322</v>
       </c>
@@ -9750,7 +9147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" s="6" customFormat="1" spans="1:22">
+    <row r="95" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A95" s="30" t="s">
         <v>325</v>
       </c>
@@ -9806,7 +9203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" s="6" customFormat="1" spans="1:22">
+    <row r="96" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A96" s="30" t="s">
         <v>329</v>
       </c>
@@ -9862,7 +9259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" s="6" customFormat="1" spans="1:22">
+    <row r="97" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A97" s="30" t="s">
         <v>332</v>
       </c>
@@ -9918,7 +9315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" s="6" customFormat="1" spans="1:22">
+    <row r="98" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A98" s="30" t="s">
         <v>335</v>
       </c>
@@ -9974,7 +9371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" s="6" customFormat="1" spans="1:22">
+    <row r="99" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A99" s="30" t="s">
         <v>338</v>
       </c>
@@ -10030,7 +9427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" s="6" customFormat="1" spans="1:22">
+    <row r="100" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A100" s="30" t="s">
         <v>341</v>
       </c>
@@ -10086,7 +9483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" s="6" customFormat="1" spans="1:22">
+    <row r="101" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A101" s="30" t="s">
         <v>344</v>
       </c>
@@ -10142,7 +9539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" s="6" customFormat="1" spans="1:22">
+    <row r="102" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A102" s="30" t="s">
         <v>347</v>
       </c>
@@ -10198,7 +9595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" s="6" customFormat="1" spans="1:22">
+    <row r="103" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A103" s="30" t="s">
         <v>350</v>
       </c>
@@ -10254,7 +9651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" s="6" customFormat="1" spans="1:22">
+    <row r="104" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A104" s="30" t="s">
         <v>353</v>
       </c>
@@ -10310,7 +9707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" s="5" customFormat="1" spans="1:22">
+    <row r="105" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A105" s="24" t="s">
         <v>356</v>
       </c>
@@ -10366,7 +9763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" s="5" customFormat="1" spans="1:22">
+    <row r="106" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A106" s="24" t="s">
         <v>360</v>
       </c>
@@ -10422,7 +9819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" s="5" customFormat="1" spans="1:22">
+    <row r="107" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A107" s="24" t="s">
         <v>363</v>
       </c>
@@ -10478,7 +9875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" s="5" customFormat="1" spans="1:22">
+    <row r="108" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A108" s="24" t="s">
         <v>366</v>
       </c>
@@ -10534,7 +9931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" s="5" customFormat="1" spans="1:22">
+    <row r="109" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A109" s="24" t="s">
         <v>369</v>
       </c>
@@ -10590,7 +9987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" s="5" customFormat="1" spans="1:22">
+    <row r="110" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A110" s="24" t="s">
         <v>372</v>
       </c>
@@ -10646,7 +10043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" s="5" customFormat="1" spans="1:22">
+    <row r="111" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A111" s="24" t="s">
         <v>375</v>
       </c>
@@ -10702,7 +10099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" s="5" customFormat="1" spans="1:22">
+    <row r="112" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A112" s="24" t="s">
         <v>378</v>
       </c>
@@ -10758,7 +10155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" s="5" customFormat="1" spans="1:22">
+    <row r="113" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A113" s="24" t="s">
         <v>381</v>
       </c>
@@ -10814,7 +10211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" s="5" customFormat="1" spans="1:22">
+    <row r="114" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A114" s="24" t="s">
         <v>384</v>
       </c>
@@ -10870,7 +10267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" s="5" customFormat="1" spans="1:22">
+    <row r="115" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A115" s="24" t="s">
         <v>387</v>
       </c>
@@ -10926,7 +10323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" s="5" customFormat="1" spans="1:22">
+    <row r="116" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A116" s="24" t="s">
         <v>391</v>
       </c>
@@ -10982,7 +10379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" s="5" customFormat="1" spans="1:22">
+    <row r="117" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A117" s="24" t="s">
         <v>394</v>
       </c>
@@ -11038,7 +10435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" s="5" customFormat="1" spans="1:22">
+    <row r="118" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A118" s="24" t="s">
         <v>397</v>
       </c>
@@ -11094,7 +10491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" s="5" customFormat="1" spans="1:22">
+    <row r="119" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A119" s="24" t="s">
         <v>400</v>
       </c>
@@ -11150,7 +10547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" s="5" customFormat="1" spans="1:22">
+    <row r="120" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A120" s="24" t="s">
         <v>403</v>
       </c>
@@ -11206,7 +10603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" s="5" customFormat="1" spans="1:22">
+    <row r="121" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A121" s="24" t="s">
         <v>406</v>
       </c>
@@ -11262,7 +10659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" s="5" customFormat="1" spans="1:22">
+    <row r="122" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A122" s="24" t="s">
         <v>409</v>
       </c>
@@ -11318,7 +10715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" s="5" customFormat="1" spans="1:22">
+    <row r="123" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A123" s="24" t="s">
         <v>412</v>
       </c>
@@ -11374,7 +10771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" s="5" customFormat="1" spans="1:22">
+    <row r="124" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A124" s="24" t="s">
         <v>415</v>
       </c>
@@ -11430,7 +10827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" s="7" customFormat="1" spans="1:22">
+    <row r="125" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A125" s="31" t="s">
         <v>418</v>
       </c>
@@ -11488,7 +10885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" s="7" customFormat="1" spans="1:22">
+    <row r="126" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A126" s="33" t="s">
         <v>423</v>
       </c>
@@ -11546,7 +10943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" s="7" customFormat="1" spans="1:22">
+    <row r="127" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A127" s="33" t="s">
         <v>427</v>
       </c>
@@ -11604,7 +11001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" s="7" customFormat="1" spans="1:22">
+    <row r="128" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A128" s="33" t="s">
         <v>431</v>
       </c>
@@ -11662,7 +11059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" s="7" customFormat="1" spans="1:22">
+    <row r="129" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A129" s="33" t="s">
         <v>435</v>
       </c>
@@ -11720,7 +11117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" s="7" customFormat="1" spans="1:22">
+    <row r="130" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A130" s="33" t="s">
         <v>439</v>
       </c>
@@ -11778,7 +11175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" s="8" customFormat="1" spans="1:22">
+    <row r="131" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A131" s="37" t="s">
         <v>443</v>
       </c>
@@ -11834,7 +11231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" s="8" customFormat="1" spans="1:22">
+    <row r="132" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A132" s="37" t="s">
         <v>447</v>
       </c>
@@ -11890,7 +11287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" s="8" customFormat="1" spans="1:22">
+    <row r="133" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A133" s="37" t="s">
         <v>450</v>
       </c>
@@ -11946,7 +11343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" s="8" customFormat="1" spans="1:22">
+    <row r="134" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A134" s="37" t="s">
         <v>453</v>
       </c>
@@ -12002,7 +11399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" s="8" customFormat="1" spans="1:22">
+    <row r="135" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A135" s="37" t="s">
         <v>456</v>
       </c>
@@ -12058,7 +11455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" s="8" customFormat="1" spans="1:22">
+    <row r="136" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A136" s="37" t="s">
         <v>459</v>
       </c>
@@ -12114,7 +11511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" s="8" customFormat="1" spans="1:22">
+    <row r="137" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A137" s="37" t="s">
         <v>462</v>
       </c>
@@ -12170,7 +11567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" s="8" customFormat="1" spans="1:22">
+    <row r="138" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A138" s="37" t="s">
         <v>465</v>
       </c>
@@ -12226,7 +11623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" s="8" customFormat="1" spans="1:22">
+    <row r="139" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A139" s="37" t="s">
         <v>468</v>
       </c>
@@ -12282,7 +11679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" s="8" customFormat="1" spans="1:22">
+    <row r="140" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A140" s="37" t="s">
         <v>471</v>
       </c>
@@ -12338,7 +11735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" s="8" customFormat="1" spans="1:22">
+    <row r="141" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A141" s="37" t="s">
         <v>474</v>
       </c>
@@ -12394,7 +11791,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="142" s="8" customFormat="1" spans="1:22">
+    <row r="142" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A142" s="37" t="s">
         <v>477</v>
       </c>
@@ -12450,7 +11847,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="143" s="8" customFormat="1" spans="1:22">
+    <row r="143" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A143" s="37" t="s">
         <v>480</v>
       </c>
@@ -12506,7 +11903,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="144" s="8" customFormat="1" spans="1:22">
+    <row r="144" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A144" s="37" t="s">
         <v>483</v>
       </c>
@@ -12562,7 +11959,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="145" s="8" customFormat="1" spans="1:22">
+    <row r="145" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A145" s="37" t="s">
         <v>486</v>
       </c>
@@ -12618,7 +12015,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="146" s="8" customFormat="1" spans="1:22">
+    <row r="146" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A146" s="37" t="s">
         <v>489</v>
       </c>
@@ -12674,7 +12071,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="147" s="8" customFormat="1" spans="1:22">
+    <row r="147" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A147" s="37" t="s">
         <v>492</v>
       </c>
@@ -12730,7 +12127,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="148" s="8" customFormat="1" spans="1:22">
+    <row r="148" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A148" s="37" t="s">
         <v>495</v>
       </c>
@@ -12786,7 +12183,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="149" s="8" customFormat="1" spans="1:22">
+    <row r="149" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A149" s="37" t="s">
         <v>498</v>
       </c>
@@ -12842,7 +12239,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="150" s="8" customFormat="1" spans="1:22">
+    <row r="150" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A150" s="37" t="s">
         <v>501</v>
       </c>
@@ -12898,7 +12295,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="151" s="8" customFormat="1" spans="1:22">
+    <row r="151" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A151" s="37" t="s">
         <v>504</v>
       </c>
@@ -12954,7 +12351,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="152" s="8" customFormat="1" spans="1:22">
+    <row r="152" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A152" s="37" t="s">
         <v>507</v>
       </c>
@@ -13010,7 +12407,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="153" s="8" customFormat="1" spans="1:22">
+    <row r="153" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A153" s="37" t="s">
         <v>510</v>
       </c>
@@ -13066,7 +12463,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="154" s="8" customFormat="1" spans="1:22">
+    <row r="154" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A154" s="37" t="s">
         <v>513</v>
       </c>
@@ -13122,7 +12519,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="155" s="8" customFormat="1" spans="1:22">
+    <row r="155" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A155" s="37" t="s">
         <v>516</v>
       </c>
@@ -13178,7 +12575,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="156" s="8" customFormat="1" spans="1:22">
+    <row r="156" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A156" s="37" t="s">
         <v>519</v>
       </c>
@@ -13234,7 +12631,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="157" s="8" customFormat="1" spans="1:22">
+    <row r="157" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A157" s="37" t="s">
         <v>522</v>
       </c>
@@ -13290,7 +12687,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="158" s="8" customFormat="1" spans="1:22">
+    <row r="158" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A158" s="37" t="s">
         <v>525</v>
       </c>
@@ -13346,7 +12743,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="159" s="8" customFormat="1" spans="1:22">
+    <row r="159" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A159" s="37" t="s">
         <v>528</v>
       </c>
@@ -13402,7 +12799,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="160" s="8" customFormat="1" spans="1:22">
+    <row r="160" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A160" s="37" t="s">
         <v>531</v>
       </c>
@@ -13458,7 +12855,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="161" s="9" customFormat="1" spans="1:22">
+    <row r="161" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A161" s="39" t="s">
         <v>534</v>
       </c>
@@ -13514,7 +12911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" s="9" customFormat="1" spans="1:22">
+    <row r="162" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A162" s="39" t="s">
         <v>538</v>
       </c>
@@ -13570,7 +12967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" s="9" customFormat="1" spans="1:22">
+    <row r="163" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A163" s="39" t="s">
         <v>541</v>
       </c>
@@ -13626,7 +13023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" s="9" customFormat="1" spans="1:22">
+    <row r="164" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A164" s="39" t="s">
         <v>544</v>
       </c>
@@ -13682,7 +13079,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" s="9" customFormat="1" spans="1:22">
+    <row r="165" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A165" s="39" t="s">
         <v>547</v>
       </c>
@@ -13738,7 +13135,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" s="9" customFormat="1" spans="1:22">
+    <row r="166" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A166" s="39" t="s">
         <v>550</v>
       </c>
@@ -13794,7 +13191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" s="9" customFormat="1" spans="1:22">
+    <row r="167" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A167" s="39" t="s">
         <v>553</v>
       </c>
@@ -13850,7 +13247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" s="9" customFormat="1" spans="1:22">
+    <row r="168" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A168" s="39" t="s">
         <v>556</v>
       </c>
@@ -13906,7 +13303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" s="9" customFormat="1" spans="1:22">
+    <row r="169" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A169" s="39" t="s">
         <v>559</v>
       </c>
@@ -13962,7 +13359,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" s="9" customFormat="1" spans="1:22">
+    <row r="170" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A170" s="39" t="s">
         <v>562</v>
       </c>
@@ -14018,7 +13415,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" s="9" customFormat="1" spans="1:22">
+    <row r="171" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A171" s="39" t="s">
         <v>565</v>
       </c>
@@ -14074,7 +13471,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="172" s="9" customFormat="1" ht="14" customHeight="1" spans="1:22">
+    <row r="172" spans="1:22" s="9" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A172" s="39" t="s">
         <v>568</v>
       </c>
@@ -14130,7 +13527,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="173" s="9" customFormat="1" ht="14" customHeight="1" spans="1:22">
+    <row r="173" spans="1:22" s="9" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A173" s="39" t="s">
         <v>571</v>
       </c>
@@ -14186,7 +13583,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="174" s="9" customFormat="1" ht="14" customHeight="1" spans="1:22">
+    <row r="174" spans="1:22" s="9" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A174" s="39" t="s">
         <v>574</v>
       </c>
@@ -14242,7 +13639,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="175" s="9" customFormat="1" ht="14" customHeight="1" spans="1:22">
+    <row r="175" spans="1:22" s="9" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A175" s="39" t="s">
         <v>577</v>
       </c>
@@ -14298,7 +13695,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="176" s="9" customFormat="1" ht="14" customHeight="1" spans="1:22">
+    <row r="176" spans="1:22" s="9" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A176" s="39" t="s">
         <v>580</v>
       </c>
@@ -14354,7 +13751,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="177" s="9" customFormat="1" ht="14" customHeight="1" spans="1:22">
+    <row r="177" spans="1:22" s="9" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A177" s="39" t="s">
         <v>583</v>
       </c>
@@ -14410,7 +13807,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="178" s="9" customFormat="1" ht="14" customHeight="1" spans="1:22">
+    <row r="178" spans="1:22" s="9" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A178" s="39" t="s">
         <v>586</v>
       </c>
@@ -14466,7 +13863,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="179" s="9" customFormat="1" ht="14" customHeight="1" spans="1:22">
+    <row r="179" spans="1:22" s="9" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A179" s="39" t="s">
         <v>589</v>
       </c>
@@ -14522,7 +13919,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="180" s="9" customFormat="1" ht="14" customHeight="1" spans="1:22">
+    <row r="180" spans="1:22" s="9" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A180" s="39" t="s">
         <v>592</v>
       </c>
@@ -14578,7 +13975,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="181" s="9" customFormat="1" ht="14" customHeight="1" spans="1:22">
+    <row r="181" spans="1:22" s="9" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A181" s="39" t="s">
         <v>595</v>
       </c>
@@ -14634,7 +14031,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="182" s="9" customFormat="1" ht="14" customHeight="1" spans="1:22">
+    <row r="182" spans="1:22" s="9" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A182" s="39" t="s">
         <v>598</v>
       </c>
@@ -14690,7 +14087,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="183" s="9" customFormat="1" ht="14" customHeight="1" spans="1:22">
+    <row r="183" spans="1:22" s="9" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A183" s="39" t="s">
         <v>601</v>
       </c>
@@ -14746,7 +14143,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="184" s="9" customFormat="1" ht="14" customHeight="1" spans="1:22">
+    <row r="184" spans="1:22" s="9" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A184" s="39" t="s">
         <v>604</v>
       </c>
@@ -14802,7 +14199,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="185" s="9" customFormat="1" ht="14" customHeight="1" spans="1:22">
+    <row r="185" spans="1:22" s="9" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A185" s="39" t="s">
         <v>607</v>
       </c>
@@ -14858,7 +14255,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="186" s="9" customFormat="1" ht="14" customHeight="1" spans="1:22">
+    <row r="186" spans="1:22" s="9" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A186" s="39" t="s">
         <v>610</v>
       </c>
@@ -14914,7 +14311,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="187" s="9" customFormat="1" ht="14" customHeight="1" spans="1:22">
+    <row r="187" spans="1:22" s="9" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A187" s="39" t="s">
         <v>613</v>
       </c>
@@ -14970,7 +14367,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="188" s="9" customFormat="1" ht="14" customHeight="1" spans="1:22">
+    <row r="188" spans="1:22" s="9" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A188" s="39" t="s">
         <v>616</v>
       </c>
@@ -15026,7 +14423,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="189" s="9" customFormat="1" ht="14" customHeight="1" spans="1:22">
+    <row r="189" spans="1:22" s="9" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A189" s="39" t="s">
         <v>619</v>
       </c>
@@ -15082,7 +14479,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="190" s="9" customFormat="1" ht="14" customHeight="1" spans="1:22">
+    <row r="190" spans="1:22" s="9" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A190" s="39" t="s">
         <v>622</v>
       </c>
@@ -15138,7 +14535,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="191" s="8" customFormat="1" spans="1:22">
+    <row r="191" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A191" s="37" t="s">
         <v>625</v>
       </c>
@@ -15194,7 +14591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" s="8" customFormat="1" spans="1:22">
+    <row r="192" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A192" s="37" t="s">
         <v>629</v>
       </c>
@@ -15250,7 +14647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" s="8" customFormat="1" spans="1:22">
+    <row r="193" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A193" s="37" t="s">
         <v>632</v>
       </c>
@@ -15306,7 +14703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" s="8" customFormat="1" spans="1:22">
+    <row r="194" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A194" s="37" t="s">
         <v>635</v>
       </c>
@@ -15362,7 +14759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" s="8" customFormat="1" spans="1:22">
+    <row r="195" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A195" s="37" t="s">
         <v>638</v>
       </c>
@@ -15418,7 +14815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" s="8" customFormat="1" spans="1:22">
+    <row r="196" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A196" s="37" t="s">
         <v>641</v>
       </c>
@@ -15474,7 +14871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" s="8" customFormat="1" spans="1:22">
+    <row r="197" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A197" s="37" t="s">
         <v>644</v>
       </c>
@@ -15530,7 +14927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" s="8" customFormat="1" spans="1:22">
+    <row r="198" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A198" s="37" t="s">
         <v>647</v>
       </c>
@@ -15586,7 +14983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" s="8" customFormat="1" spans="1:22">
+    <row r="199" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A199" s="37" t="s">
         <v>650</v>
       </c>
@@ -15642,7 +15039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" s="8" customFormat="1" spans="1:22">
+    <row r="200" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A200" s="37" t="s">
         <v>653</v>
       </c>
@@ -15698,7 +15095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" s="8" customFormat="1" spans="1:22">
+    <row r="201" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A201" s="37" t="s">
         <v>656</v>
       </c>
@@ -15754,7 +15151,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="202" s="8" customFormat="1" spans="1:22">
+    <row r="202" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A202" s="37" t="s">
         <v>659</v>
       </c>
@@ -15810,7 +15207,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="203" s="8" customFormat="1" spans="1:22">
+    <row r="203" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A203" s="37" t="s">
         <v>662</v>
       </c>
@@ -15866,7 +15263,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="204" s="8" customFormat="1" spans="1:22">
+    <row r="204" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A204" s="37" t="s">
         <v>665</v>
       </c>
@@ -15922,7 +15319,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="205" s="8" customFormat="1" spans="1:22">
+    <row r="205" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A205" s="37" t="s">
         <v>668</v>
       </c>
@@ -15978,7 +15375,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="206" s="8" customFormat="1" spans="1:22">
+    <row r="206" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A206" s="37" t="s">
         <v>671</v>
       </c>
@@ -16034,7 +15431,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="207" s="8" customFormat="1" spans="1:22">
+    <row r="207" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A207" s="37" t="s">
         <v>674</v>
       </c>
@@ -16090,7 +15487,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="208" s="8" customFormat="1" spans="1:22">
+    <row r="208" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A208" s="37" t="s">
         <v>677</v>
       </c>
@@ -16146,7 +15543,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="209" s="8" customFormat="1" spans="1:22">
+    <row r="209" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A209" s="37" t="s">
         <v>680</v>
       </c>
@@ -16202,7 +15599,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="210" s="8" customFormat="1" spans="1:22">
+    <row r="210" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A210" s="37" t="s">
         <v>683</v>
       </c>
@@ -16258,7 +15655,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="211" s="8" customFormat="1" spans="1:22">
+    <row r="211" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A211" s="37" t="s">
         <v>686</v>
       </c>
@@ -16314,7 +15711,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="212" s="8" customFormat="1" spans="1:22">
+    <row r="212" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A212" s="37" t="s">
         <v>689</v>
       </c>
@@ -16370,7 +15767,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="213" s="8" customFormat="1" spans="1:22">
+    <row r="213" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A213" s="37" t="s">
         <v>692</v>
       </c>
@@ -16426,7 +15823,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="214" s="8" customFormat="1" spans="1:22">
+    <row r="214" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A214" s="37" t="s">
         <v>695</v>
       </c>
@@ -16482,7 +15879,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="215" s="8" customFormat="1" spans="1:22">
+    <row r="215" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A215" s="37" t="s">
         <v>698</v>
       </c>
@@ -16538,7 +15935,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="216" s="8" customFormat="1" spans="1:22">
+    <row r="216" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A216" s="37" t="s">
         <v>701</v>
       </c>
@@ -16594,7 +15991,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="217" s="8" customFormat="1" spans="1:22">
+    <row r="217" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A217" s="37" t="s">
         <v>704</v>
       </c>
@@ -16650,7 +16047,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="218" s="8" customFormat="1" spans="1:22">
+    <row r="218" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A218" s="37" t="s">
         <v>707</v>
       </c>
@@ -16706,7 +16103,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="219" s="8" customFormat="1" spans="1:22">
+    <row r="219" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A219" s="37" t="s">
         <v>710</v>
       </c>
@@ -16762,7 +16159,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="220" s="8" customFormat="1" spans="1:22">
+    <row r="220" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A220" s="37" t="s">
         <v>713</v>
       </c>
@@ -16818,7 +16215,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="221" s="9" customFormat="1" spans="1:22">
+    <row r="221" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A221" s="39" t="s">
         <v>716</v>
       </c>
@@ -16874,7 +16271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" s="9" customFormat="1" spans="1:22">
+    <row r="222" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A222" s="39" t="s">
         <v>720</v>
       </c>
@@ -16930,7 +16327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" s="9" customFormat="1" spans="1:22">
+    <row r="223" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A223" s="39" t="s">
         <v>723</v>
       </c>
@@ -16986,7 +16383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" s="9" customFormat="1" spans="1:22">
+    <row r="224" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A224" s="39" t="s">
         <v>726</v>
       </c>
@@ -17042,7 +16439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" s="9" customFormat="1" spans="1:22">
+    <row r="225" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A225" s="39" t="s">
         <v>729</v>
       </c>
@@ -17098,7 +16495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" s="9" customFormat="1" spans="1:22">
+    <row r="226" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A226" s="39" t="s">
         <v>732</v>
       </c>
@@ -17154,7 +16551,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" s="9" customFormat="1" spans="1:22">
+    <row r="227" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A227" s="39" t="s">
         <v>735</v>
       </c>
@@ -17210,7 +16607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" s="9" customFormat="1" spans="1:22">
+    <row r="228" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A228" s="39" t="s">
         <v>738</v>
       </c>
@@ -17266,7 +16663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" s="9" customFormat="1" spans="1:22">
+    <row r="229" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A229" s="39" t="s">
         <v>741</v>
       </c>
@@ -17322,7 +16719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" s="9" customFormat="1" spans="1:22">
+    <row r="230" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A230" s="39" t="s">
         <v>744</v>
       </c>
@@ -17378,7 +16775,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" s="9" customFormat="1" spans="1:22">
+    <row r="231" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A231" s="39" t="s">
         <v>747</v>
       </c>
@@ -17434,7 +16831,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="232" s="9" customFormat="1" spans="1:22">
+    <row r="232" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A232" s="39" t="s">
         <v>750</v>
       </c>
@@ -17490,7 +16887,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="233" s="9" customFormat="1" spans="1:22">
+    <row r="233" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A233" s="39" t="s">
         <v>753</v>
       </c>
@@ -17546,7 +16943,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="234" s="9" customFormat="1" spans="1:22">
+    <row r="234" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A234" s="39" t="s">
         <v>756</v>
       </c>
@@ -17602,7 +16999,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="235" s="9" customFormat="1" spans="1:22">
+    <row r="235" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A235" s="39" t="s">
         <v>759</v>
       </c>
@@ -17658,7 +17055,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="236" s="9" customFormat="1" spans="1:22">
+    <row r="236" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A236" s="39" t="s">
         <v>762</v>
       </c>
@@ -17714,7 +17111,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="237" s="9" customFormat="1" spans="1:22">
+    <row r="237" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A237" s="39" t="s">
         <v>765</v>
       </c>
@@ -17770,7 +17167,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="238" s="9" customFormat="1" spans="1:22">
+    <row r="238" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A238" s="39" t="s">
         <v>768</v>
       </c>
@@ -17826,7 +17223,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="239" s="9" customFormat="1" spans="1:22">
+    <row r="239" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A239" s="39" t="s">
         <v>771</v>
       </c>
@@ -17882,7 +17279,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="240" s="9" customFormat="1" spans="1:22">
+    <row r="240" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A240" s="39" t="s">
         <v>774</v>
       </c>
@@ -17938,7 +17335,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="241" s="9" customFormat="1" spans="1:22">
+    <row r="241" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A241" s="39" t="s">
         <v>777</v>
       </c>
@@ -17994,7 +17391,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="242" s="9" customFormat="1" spans="1:22">
+    <row r="242" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A242" s="39" t="s">
         <v>780</v>
       </c>
@@ -18050,7 +17447,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="243" s="9" customFormat="1" spans="1:22">
+    <row r="243" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A243" s="39" t="s">
         <v>783</v>
       </c>
@@ -18106,7 +17503,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="244" s="9" customFormat="1" spans="1:22">
+    <row r="244" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A244" s="39" t="s">
         <v>786</v>
       </c>
@@ -18162,7 +17559,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="245" s="9" customFormat="1" spans="1:22">
+    <row r="245" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A245" s="39" t="s">
         <v>789</v>
       </c>
@@ -18218,7 +17615,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="246" s="9" customFormat="1" spans="1:22">
+    <row r="246" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A246" s="39" t="s">
         <v>792</v>
       </c>
@@ -18274,7 +17671,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="247" s="9" customFormat="1" spans="1:22">
+    <row r="247" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A247" s="39" t="s">
         <v>795</v>
       </c>
@@ -18330,7 +17727,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="248" s="9" customFormat="1" spans="1:22">
+    <row r="248" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A248" s="39" t="s">
         <v>798</v>
       </c>
@@ -18386,7 +17783,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="249" s="10" customFormat="1" spans="1:22">
+    <row r="249" spans="1:22" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A249" s="43" t="s">
         <v>801</v>
       </c>
@@ -18442,7 +17839,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="250" s="10" customFormat="1" spans="1:22">
+    <row r="250" spans="1:22" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A250" s="43" t="s">
         <v>804</v>
       </c>
@@ -18498,7 +17895,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="251" s="11" customFormat="1" spans="1:22">
+    <row r="251" spans="1:22" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A251" s="45" t="s">
         <v>807</v>
       </c>
@@ -18554,7 +17951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" s="11" customFormat="1" spans="1:22">
+    <row r="252" spans="1:22" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A252" s="45" t="s">
         <v>811</v>
       </c>
@@ -18610,7 +18007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" s="11" customFormat="1" spans="1:22">
+    <row r="253" spans="1:22" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A253" s="45" t="s">
         <v>814</v>
       </c>
@@ -18666,7 +18063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" s="11" customFormat="1" spans="1:22">
+    <row r="254" spans="1:22" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A254" s="45" t="s">
         <v>817</v>
       </c>
@@ -18722,7 +18119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" s="11" customFormat="1" spans="1:22">
+    <row r="255" spans="1:22" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A255" s="45" t="s">
         <v>820</v>
       </c>
@@ -18778,7 +18175,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" s="11" customFormat="1" spans="1:22">
+    <row r="256" spans="1:22" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A256" s="45" t="s">
         <v>823</v>
       </c>
@@ -18834,7 +18231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" s="11" customFormat="1" spans="1:22">
+    <row r="257" spans="1:22" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A257" s="45" t="s">
         <v>826</v>
       </c>
@@ -18890,7 +18287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" s="11" customFormat="1" spans="1:22">
+    <row r="258" spans="1:22" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A258" s="45" t="s">
         <v>829</v>
       </c>
@@ -18946,7 +18343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" s="11" customFormat="1" spans="1:22">
+    <row r="259" spans="1:22" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A259" s="45" t="s">
         <v>832</v>
       </c>
@@ -19002,7 +18399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" s="11" customFormat="1" spans="1:22">
+    <row r="260" spans="1:22" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A260" s="45" t="s">
         <v>835</v>
       </c>
@@ -19058,7 +18455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="261" s="11" customFormat="1" spans="1:22">
+    <row r="261" spans="1:22" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A261" s="45" t="s">
         <v>838</v>
       </c>
@@ -19114,7 +18511,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="262" s="11" customFormat="1" spans="1:22">
+    <row r="262" spans="1:22" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A262" s="45" t="s">
         <v>841</v>
       </c>
@@ -19170,7 +18567,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="263" s="11" customFormat="1" spans="1:22">
+    <row r="263" spans="1:22" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A263" s="45" t="s">
         <v>844</v>
       </c>
@@ -19226,7 +18623,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="264" s="11" customFormat="1" spans="1:22">
+    <row r="264" spans="1:22" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A264" s="45" t="s">
         <v>847</v>
       </c>
@@ -19282,7 +18679,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="265" s="11" customFormat="1" spans="1:22">
+    <row r="265" spans="1:22" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A265" s="45" t="s">
         <v>850</v>
       </c>
@@ -19338,7 +18735,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="266" s="11" customFormat="1" spans="1:22">
+    <row r="266" spans="1:22" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A266" s="45" t="s">
         <v>853</v>
       </c>
@@ -19394,7 +18791,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="267" s="11" customFormat="1" spans="1:22">
+    <row r="267" spans="1:22" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A267" s="45" t="s">
         <v>856</v>
       </c>
@@ -19450,7 +18847,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="268" s="11" customFormat="1" spans="1:22">
+    <row r="268" spans="1:22" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A268" s="45" t="s">
         <v>859</v>
       </c>
@@ -19506,7 +18903,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="269" s="11" customFormat="1" spans="1:22">
+    <row r="269" spans="1:22" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A269" s="45" t="s">
         <v>862</v>
       </c>
@@ -19562,7 +18959,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="270" s="11" customFormat="1" spans="1:22">
+    <row r="270" spans="1:22" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A270" s="45" t="s">
         <v>865</v>
       </c>
@@ -19618,7 +19015,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="271" s="11" customFormat="1" spans="1:22">
+    <row r="271" spans="1:22" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A271" s="45" t="s">
         <v>868</v>
       </c>
@@ -19674,7 +19071,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="272" s="11" customFormat="1" spans="1:22">
+    <row r="272" spans="1:22" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A272" s="45" t="s">
         <v>871</v>
       </c>
@@ -19730,7 +19127,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="273" s="11" customFormat="1" spans="1:22">
+    <row r="273" spans="1:22" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A273" s="45" t="s">
         <v>874</v>
       </c>
@@ -19786,7 +19183,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="274" s="11" customFormat="1" spans="1:22">
+    <row r="274" spans="1:22" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A274" s="45" t="s">
         <v>877</v>
       </c>
@@ -19842,7 +19239,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="275" s="11" customFormat="1" spans="1:22">
+    <row r="275" spans="1:22" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A275" s="45" t="s">
         <v>880</v>
       </c>
@@ -19898,7 +19295,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="276" s="11" customFormat="1" spans="1:22">
+    <row r="276" spans="1:22" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A276" s="45" t="s">
         <v>883</v>
       </c>
@@ -19954,7 +19351,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="277" s="11" customFormat="1" spans="1:22">
+    <row r="277" spans="1:22" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A277" s="45" t="s">
         <v>886</v>
       </c>
@@ -20010,7 +19407,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="278" s="11" customFormat="1" spans="1:22">
+    <row r="278" spans="1:22" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A278" s="45" t="s">
         <v>889</v>
       </c>
@@ -20066,7 +19463,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="279" s="11" customFormat="1" spans="1:22">
+    <row r="279" spans="1:22" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A279" s="45" t="s">
         <v>892</v>
       </c>
@@ -20122,7 +19519,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="280" s="11" customFormat="1" ht="14.25" spans="1:22">
+    <row r="280" spans="1:22" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A280" s="45" t="s">
         <v>895</v>
       </c>
@@ -20178,7 +19575,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="281" s="12" customFormat="1" spans="1:22">
+    <row r="281" spans="1:22" s="12" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A281" s="51" t="s">
         <v>898</v>
       </c>
@@ -20234,7 +19631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" s="10" customFormat="1" ht="14.25" spans="1:22">
+    <row r="282" spans="1:22" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A282" s="54" t="s">
         <v>902</v>
       </c>
@@ -20290,7 +19687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="283" s="10" customFormat="1" spans="1:22">
+    <row r="283" spans="1:22" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A283" s="54" t="s">
         <v>905</v>
       </c>
@@ -20346,7 +19743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" s="10" customFormat="1" ht="14.25" spans="1:22">
+    <row r="284" spans="1:22" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A284" s="54" t="s">
         <v>908</v>
       </c>
@@ -20402,7 +19799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="285" s="10" customFormat="1" spans="1:22">
+    <row r="285" spans="1:22" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A285" s="54" t="s">
         <v>911</v>
       </c>
@@ -20458,7 +19855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" s="10" customFormat="1" ht="14.25" spans="1:22">
+    <row r="286" spans="1:22" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A286" s="54" t="s">
         <v>914</v>
       </c>
@@ -20514,7 +19911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" s="10" customFormat="1" spans="1:22">
+    <row r="287" spans="1:22" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A287" s="54" t="s">
         <v>917</v>
       </c>
@@ -20570,7 +19967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288" s="10" customFormat="1" ht="14.25" spans="1:22">
+    <row r="288" spans="1:22" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A288" s="54" t="s">
         <v>920</v>
       </c>
@@ -20626,7 +20023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="289" s="10" customFormat="1" spans="1:22">
+    <row r="289" spans="1:22" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A289" s="54" t="s">
         <v>923</v>
       </c>
@@ -20682,7 +20079,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="290" s="10" customFormat="1" ht="14.25" spans="1:22">
+    <row r="290" spans="1:22" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A290" s="54" t="s">
         <v>926</v>
       </c>
@@ -20738,7 +20135,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291" s="10" customFormat="1" spans="1:22">
+    <row r="291" spans="1:22" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A291" s="54" t="s">
         <v>929</v>
       </c>
@@ -20794,7 +20191,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="292" s="10" customFormat="1" ht="14.25" spans="1:22">
+    <row r="292" spans="1:22" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A292" s="54" t="s">
         <v>932</v>
       </c>
@@ -20850,7 +20247,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="293" s="10" customFormat="1" spans="1:22">
+    <row r="293" spans="1:22" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A293" s="54" t="s">
         <v>934</v>
       </c>
@@ -20906,7 +20303,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="294" s="10" customFormat="1" ht="14.25" spans="1:22">
+    <row r="294" spans="1:22" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A294" s="54" t="s">
         <v>937</v>
       </c>
@@ -20962,7 +20359,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="295" s="10" customFormat="1" spans="1:22">
+    <row r="295" spans="1:22" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A295" s="54" t="s">
         <v>940</v>
       </c>
@@ -21018,7 +20415,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="296" s="10" customFormat="1" ht="14.25" spans="1:22">
+    <row r="296" spans="1:22" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A296" s="54" t="s">
         <v>943</v>
       </c>
@@ -21074,7 +20471,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="297" s="10" customFormat="1" spans="1:22">
+    <row r="297" spans="1:22" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A297" s="54" t="s">
         <v>946</v>
       </c>
@@ -21130,7 +20527,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="298" s="10" customFormat="1" ht="14.25" spans="1:22">
+    <row r="298" spans="1:22" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A298" s="54" t="s">
         <v>949</v>
       </c>
@@ -21186,7 +20583,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="299" s="10" customFormat="1" spans="1:22">
+    <row r="299" spans="1:22" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A299" s="54" t="s">
         <v>952</v>
       </c>
@@ -21242,7 +20639,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="300" s="10" customFormat="1" ht="14.25" spans="1:22">
+    <row r="300" spans="1:22" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A300" s="54" t="s">
         <v>955</v>
       </c>
@@ -21298,7 +20695,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="301" s="10" customFormat="1" spans="1:22">
+    <row r="301" spans="1:22" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A301" s="54" t="s">
         <v>958</v>
       </c>
@@ -21354,7 +20751,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="302" s="10" customFormat="1" ht="14.25" spans="1:22">
+    <row r="302" spans="1:22" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A302" s="54" t="s">
         <v>961</v>
       </c>
@@ -21410,7 +20807,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="303" s="10" customFormat="1" spans="1:22">
+    <row r="303" spans="1:22" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A303" s="54" t="s">
         <v>964</v>
       </c>
@@ -21466,7 +20863,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="304" s="10" customFormat="1" ht="14.25" spans="1:22">
+    <row r="304" spans="1:22" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A304" s="54" t="s">
         <v>967</v>
       </c>
@@ -21522,7 +20919,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="305" s="10" customFormat="1" spans="1:22">
+    <row r="305" spans="1:22" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A305" s="54" t="s">
         <v>970</v>
       </c>
@@ -21578,7 +20975,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="306" s="10" customFormat="1" ht="14.25" spans="1:22">
+    <row r="306" spans="1:22" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A306" s="54" t="s">
         <v>973</v>
       </c>
@@ -21634,7 +21031,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="307" s="10" customFormat="1" spans="1:22">
+    <row r="307" spans="1:22" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A307" s="57" t="s">
         <v>976</v>
       </c>
@@ -21690,7 +21087,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="308" s="10" customFormat="1" spans="1:22">
+    <row r="308" spans="1:22" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A308" s="43" t="s">
         <v>979</v>
       </c>
@@ -21746,7 +21143,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="309" s="13" customFormat="1" spans="1:22">
+    <row r="309" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A309" s="44" t="s">
         <v>982</v>
       </c>
@@ -21802,7 +21199,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="310" s="13" customFormat="1" spans="1:22">
+    <row r="310" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A310" s="44" t="s">
         <v>985</v>
       </c>
@@ -21859,14 +21256,14 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:E7 F7:V7">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:E7 F7:V7" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>